--- a/KM5c_data/ODP_Site_1143.xlsx
+++ b/KM5c_data/ODP_Site_1143.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,7 +530,17 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>MgCa Coretop modelled temperature</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>MgCa Temperature anomaly_Original - Coretop</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
         </is>
       </c>
     </row>
@@ -628,19 +638,19 @@
         </is>
       </c>
       <c r="W2">
-        <v>28.06290215</v>
+        <v>28.44</v>
       </c>
       <c r="X2">
-        <v>0.8220978500000022</v>
+        <v>0.4449956936306414</v>
       </c>
       <c r="Y2">
-        <v>2.488990340000001</v>
+        <v>2.11188818363064</v>
       </c>
       <c r="Z2">
-        <v>-0.3570688199999985</v>
+        <v>-0.7341709730360613</v>
       </c>
       <c r="AA2">
-        <v>-0.9313854799999994</v>
+        <v>-1.308487639702662</v>
       </c>
       <c r="AB2">
         <v>1.248636363636368</v>
@@ -666,7 +676,13 @@
         <v>27.63636363636363</v>
       </c>
       <c r="AI2">
-        <v>0.07923333333</v>
+        <v>27.6266</v>
+      </c>
+      <c r="AJ2">
+        <v>0.07923333000000099</v>
+      </c>
+      <c r="AK2">
+        <v>-0.4950833299999999</v>
       </c>
     </row>
   </sheetData>
